--- a/review/review_from_210101_to_210203.xlsx
+++ b/review/review_from_210101_to_210203.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="389">
   <si>
     <t>쇼핑물</t>
   </si>
@@ -331,87 +331,132 @@
     <t>무선살까 유선살까 무지 많이 고민하고 밀레로 결정하고 구입했어요~ 남들은 밀기 힘들다고 하시던데 전 그렇게 힘들지 않네요~ 침구 청소하려고 터보 브러쉬 샀는데 그게 힘드네요... 기본 브러쉬 옆면 원래 이렇게 생겼나요?</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210202_37/1612236529206NDABE_JPEG/review-attachment-73106261-4121-45bd-8a94-a32d7828cab7.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> youm****</t>
   </si>
   <si>
     <t>무선쓰다가 이거 쓰니까 속이 뻥뻥 뚫리는 기분이에요역시 유선입니다..무선은 아직 멀었어요..</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210202_163/1612270131026evlbJ_JPEG/review-attachment-9d94250a-e002-4b82-a36d-d3914e3a1820.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> alsw****</t>
   </si>
   <si>
     <t>밀레청소기 정말 최고입니다! 다른 무선청소기, 유선청소기 다 써봤는데 밀레청소기만 못합니다 ㅠㅠ 흡입력 진짜 최고!!!</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210201_184/1612158857495Ep5BG_JPEG/review-attachment-2eff2bec-ad0d-48ee-a9cf-0362505b8307.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> dkss****</t>
   </si>
   <si>
     <t>흡입력 좋아요 ~~~</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210130_238/1611972206557igjn1_JPEG/review-attachment-daf953b5-d9bc-4d9d-8a69-c2c0d0634da1.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> luna****</t>
   </si>
   <si>
     <t>아주좋아요 부드럽게 잘돌아가네요</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210129_122/161188845735855DgQ_JPEG/review-attachment-e64ece32-7972-49df-8e7d-ebe777f0ddd2.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> lk19****</t>
   </si>
   <si>
     <t>너무  기대를 한건지 생각보다 무거워서 쓰기좀 힘드네요</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210127_88/16117321905575qugC_JPEG/review-attachment-7761b32f-8b9a-4e74-a24d-9ee5061b63f2.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> choi****</t>
   </si>
   <si>
     <t>흡입력, 움직임 다 만족합니다디자인도 예뻐요^^</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210127_234/1611753375798zB70c_JPEG/review-attachment-74875351-816e-4b5f-b22e-dc45fbf6643e.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> rj14****</t>
   </si>
   <si>
     <t>배송도 빨라요두번째 구매에요</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210125_82/1611543799608MmvCV_JPEG/review-attachment-7e30de0a-1250-4c61-ba37-8d445929b1d4.jpeg?type=w480</t>
+  </si>
+  <si>
     <t>일땡~ 무선 쓰다가 무겁기만 하고 청소가 너무 안되서 산지 얼마 안되었지만 처분하기로 하고 밀레 유선으로 샀어요~ 속이 다 시원합니다^^</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210123_122/1611371686458yYNK4_JPEG/review-attachment-75672093-317b-4b0b-968e-c6249b4e2343.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> mekk****</t>
   </si>
   <si>
     <t>과연 소문대로 흡입력 좋음.디자인은 수수하지만 오히려 그 점이 더 마음에 듭니다. 견고한 마감도 굿</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210117_170/1610847965526sosRg_JPEG/review-attachment-41fb4401-4995-4096-aa8f-6b25fbb1cd9d.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> gana****</t>
   </si>
   <si>
     <t>모델 엄청 고민하다 파켓라인으로 구입했어요  파켓이 사용하기 편하네요   무선전전하다 흡입력 때문에 유선으로 들였어요   10년 20년 까지 쓴다고해서 색상은 브라운으로 했구요  유선으로 시간 신경 안쓰고 가전제품, 가구 모두 청소 할 수 있어 좋아요</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210116_91/1610798978582ykWDG_JPEG/review-attachment-2a03c716-537a-4c86-a79e-57140815e7b2.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> swee****</t>
   </si>
   <si>
     <t>비싸서 고민하다 무선 청소기로 청소할 때 마다 짜증나서 상품평보고 구매했는데, 와~ 그냥 다 사서 쓰셔요.제일 약하게 놓고 사용했는데도 힘들이지 않고 쫙쫙 빨립니다.</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210116_132/1610795123139qry4C_JPEG/review-attachment-11052e30-3700-4634-a90c-f8ef2e4dc34a.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ppu*****</t>
   </si>
   <si>
     <t>선물 해주신다고 하셔서 급하게 고르느라 핫딜가는 아니지만잘 샀습니다 역시 흡입력!!!코드제로 선물해주신다고 하셨는데 이거 사려고 찜해뒀던거라 이걸로 골랐어요 반값이지만 제가 쓰는거니깐 제맘에드는거 사야죠 무선은 배터리도 신경써야하고 무게감도 꽤있어서 전 유선이 좋거든요 전원버튼이 본체에 있는제품은 첨 써보는거라 아직 낮설지만 익숙해지겠죠 흡입력좋은게 장땡입니다</t>
   </si>
   <si>
+    <t>https://shopping-phinf.pstatic.net/20210116_25/178b8e28-fd4f-40bb-aa4d-1d5a87415690.jpg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> make****</t>
   </si>
   <si>
     <t>밀레 구 모델 쓰다가 바꿨는데 역시 좋네요. 핸들링이 편해뇨</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210115_298/1610699465552vsUVu_JPEG/review-attachment-4a0770a5-f6db-4ada-82ec-e952d2eb8231.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> tmdr****</t>
   </si>
   <si>
     <t>흡입력 괴물인 청소기! 추천</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210110_130/1610286199948va0GN_JPEG/review-attachment-9895d04c-ea8f-4d28-9371-5f37bafe070c.jpeg?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> leeh****</t>
   </si>
   <si>
@@ -439,13 +484,22 @@
     <t>잘쓰고있어요아주요</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210201_162/1612145415332MYDgg_PNG/review-attachment-649de04e-5fda-4157-969c-0bb35acfc9c8.png?type=w480</t>
+  </si>
+  <si>
     <t xml:space="preserve"> x244****</t>
   </si>
   <si>
     <t>만족합니다 ㅎ 파워굿</t>
   </si>
   <si>
+    <t>https://phinf.pstatic.net/checkout/20210126_68/1611628929431xb3AJ_JPEG/review-attachment-3b3f697d-42d2-449d-8b24-edb66af74cb2.jpeg?type=w480</t>
+  </si>
+  <si>
     <t>깔끔한 포장으로 안전하게 왔어요</t>
+  </si>
+  <si>
+    <t>https://phinf.pstatic.net/checkout/20210105_121/1609810319748t59Gs_PNG/review-attachment-b0c38e92-4970-47ca-9295-cb38fc2cd6b7.png?type=w480</t>
   </si>
   <si>
     <t>CX1_PARQUET</t>
@@ -2275,8 +2329,8 @@
       <c r="E34" t="s">
         <v>104</v>
       </c>
-      <c r="F34" t="s">
-        <v>52</v>
+      <c r="F34" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G34">
         <v>210202</v>
@@ -2290,16 +2344,16 @@
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
+        <v>107</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G35">
         <v>210202</v>
@@ -2313,16 +2367,16 @@
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" t="s">
-        <v>52</v>
+        <v>110</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G36">
         <v>210201</v>
@@ -2336,16 +2390,16 @@
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" t="s">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G37">
         <v>210130</v>
@@ -2359,16 +2413,16 @@
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
+        <v>116</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G38">
         <v>210129</v>
@@ -2382,16 +2436,16 @@
         <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>52</v>
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G39">
         <v>210127</v>
@@ -2405,16 +2459,16 @@
         <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" t="s">
-        <v>52</v>
+        <v>122</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G40">
         <v>210127</v>
@@ -2428,16 +2482,16 @@
         <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" t="s">
-        <v>52</v>
+        <v>125</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G41">
         <v>210125</v>
@@ -2457,10 +2511,10 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
+        <v>127</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G42">
         <v>210123</v>
@@ -2474,16 +2528,16 @@
         <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" t="s">
-        <v>52</v>
+        <v>130</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G43">
         <v>210117</v>
@@ -2497,16 +2551,16 @@
         <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
+        <v>133</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G44">
         <v>210116</v>
@@ -2520,16 +2574,16 @@
         <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G45">
         <v>210116</v>
@@ -2543,16 +2597,16 @@
         <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" t="s">
-        <v>52</v>
+        <v>139</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G46">
         <v>210115</v>
@@ -2566,16 +2620,16 @@
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D47">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" t="s">
-        <v>52</v>
+        <v>142</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="G47">
         <v>210115</v>
@@ -2589,16 +2643,16 @@
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" t="s">
-        <v>52</v>
+        <v>145</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="G48">
         <v>210110</v>
@@ -2612,13 +2666,13 @@
         <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D49">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -2635,13 +2689,13 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F50" t="s">
         <v>52</v>
@@ -2658,13 +2712,13 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
         <v>52</v>
@@ -2678,19 +2732,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" t="s">
-        <v>52</v>
+        <v>155</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="G52">
         <v>210201</v>
@@ -2701,19 +2755,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" t="s">
-        <v>52</v>
+        <v>158</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="G53">
         <v>210126</v>
@@ -2724,19 +2778,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" t="s">
-        <v>52</v>
+        <v>160</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G54">
         <v>210105</v>
@@ -2747,19 +2801,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G55">
         <v>210131</v>
@@ -2770,19 +2824,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G56">
         <v>210121</v>
@@ -2793,19 +2847,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G57">
         <v>210113</v>
@@ -2816,19 +2870,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G58">
         <v>210131</v>
@@ -2839,19 +2893,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G59">
         <v>210131</v>
@@ -2862,19 +2916,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D60">
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G60">
         <v>210131</v>
@@ -2885,19 +2939,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G61">
         <v>210124</v>
@@ -2908,19 +2962,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G62">
         <v>210120</v>
@@ -2931,19 +2985,19 @@
         <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G63">
         <v>210130</v>
@@ -2954,19 +3008,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G64">
         <v>210131</v>
@@ -2977,19 +3031,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G65">
         <v>210130</v>
@@ -3000,19 +3054,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G66">
         <v>210126</v>
@@ -3023,19 +3077,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G67">
         <v>210123</v>
@@ -3046,19 +3100,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G68">
         <v>210121</v>
@@ -3069,19 +3123,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D69">
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G69">
         <v>210112</v>
@@ -3092,19 +3146,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D70">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G70">
         <v>210102</v>
@@ -3115,16 +3169,16 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
         <v>52</v>
@@ -3138,19 +3192,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="G72">
         <v>210130</v>
@@ -3161,19 +3215,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D73">
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="G73">
         <v>210128</v>
@@ -3184,19 +3238,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G74">
         <v>210123</v>
@@ -3207,19 +3261,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="G75">
         <v>210122</v>
@@ -3230,19 +3284,19 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G76">
         <v>210114</v>
@@ -3253,19 +3307,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="G77">
         <v>210113</v>
@@ -3276,19 +3330,19 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G78">
         <v>210111</v>
@@ -3299,19 +3353,19 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="G79">
         <v>210107</v>
@@ -3322,19 +3376,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G80">
         <v>210107</v>
@@ -3345,19 +3399,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="G81">
         <v>210111</v>
@@ -3368,19 +3422,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G82">
         <v>210109</v>
@@ -3391,19 +3445,19 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D83">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G83">
         <v>210106</v>
@@ -3414,19 +3468,19 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D84">
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G84">
         <v>210104</v>
@@ -3437,19 +3491,19 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G85">
         <v>210122</v>
@@ -3460,19 +3514,19 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G86">
         <v>210201</v>
@@ -3483,19 +3537,19 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G87">
         <v>210202</v>
@@ -3506,19 +3560,19 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G88">
         <v>210202</v>
@@ -3529,19 +3583,19 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G89">
         <v>210202</v>
@@ -3552,19 +3606,19 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G90">
         <v>210202</v>
@@ -3575,19 +3629,19 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="G91">
         <v>210201</v>
@@ -3598,19 +3652,19 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="G92">
         <v>210130</v>
@@ -3621,19 +3675,19 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D93">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="G93">
         <v>210129</v>
@@ -3644,19 +3698,19 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D94">
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G94">
         <v>210128</v>
@@ -3667,19 +3721,19 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D95">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="G95">
         <v>210125</v>
@@ -3690,19 +3744,19 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D96">
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G96">
         <v>210123</v>
@@ -3713,19 +3767,19 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D97">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G97">
         <v>210120</v>
@@ -3736,19 +3790,19 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="G98">
         <v>210117</v>
@@ -3759,19 +3813,19 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="G99">
         <v>210115</v>
@@ -3782,19 +3836,19 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D100">
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="G100">
         <v>210114</v>
@@ -3805,19 +3859,19 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="G101">
         <v>210114</v>
@@ -3828,19 +3882,19 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G102">
         <v>210113</v>
@@ -3851,19 +3905,19 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D103">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G103">
         <v>210109</v>
@@ -3874,19 +3928,19 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D104">
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G104">
         <v>210109</v>
@@ -3897,19 +3951,19 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="G105">
         <v>210108</v>
@@ -3920,19 +3974,19 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D106">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="G106">
         <v>210107</v>
@@ -3943,19 +3997,19 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D107">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="G107">
         <v>210107</v>
@@ -3966,19 +4020,19 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G108">
         <v>210106</v>
@@ -3989,19 +4043,19 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="G109">
         <v>210104</v>
@@ -4012,19 +4066,19 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D110">
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="G110">
         <v>210102</v>
@@ -4035,19 +4089,19 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D111">
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G111">
         <v>210202</v>
@@ -4058,19 +4112,19 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D112">
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G112">
         <v>210202</v>
@@ -4081,19 +4135,19 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G113">
         <v>210202</v>
@@ -4104,19 +4158,19 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G114">
         <v>210202</v>
@@ -4127,19 +4181,19 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D115">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="G115">
         <v>210201</v>
@@ -4150,19 +4204,19 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="G116">
         <v>210130</v>
@@ -4173,19 +4227,19 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="G117">
         <v>210129</v>
@@ -4196,19 +4250,19 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G118">
         <v>210128</v>
@@ -4219,19 +4273,19 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="G119">
         <v>210125</v>
@@ -4242,19 +4296,19 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G120">
         <v>210123</v>
@@ -4265,19 +4319,19 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G121">
         <v>210120</v>
@@ -4288,19 +4342,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D122">
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="G122">
         <v>210117</v>
@@ -4311,19 +4365,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D123">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="G123">
         <v>210115</v>
@@ -4334,19 +4388,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D124">
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="G124">
         <v>210114</v>
@@ -4357,19 +4411,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="D125">
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="G125">
         <v>210114</v>
@@ -4380,19 +4434,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D126">
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G126">
         <v>210113</v>
@@ -4403,19 +4457,19 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D127">
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G127">
         <v>210109</v>
@@ -4426,19 +4480,19 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C128" t="s">
+        <v>317</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
         <v>318</v>
       </c>
-      <c r="C128" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>300</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G128">
         <v>210109</v>
@@ -4449,19 +4503,19 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C129" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D129">
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="G129">
         <v>210108</v>
@@ -4472,19 +4526,19 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D130">
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="G130">
         <v>210107</v>
@@ -4495,19 +4549,19 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D131">
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="G131">
         <v>210107</v>
@@ -4518,19 +4572,19 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D132">
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G132">
         <v>210106</v>
@@ -4541,19 +4595,19 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C133" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D133">
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="G133">
         <v>210104</v>
@@ -4564,19 +4618,19 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="G134">
         <v>210102</v>
@@ -4587,19 +4641,19 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="G135">
         <v>210131</v>
@@ -4610,19 +4664,19 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C136" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D136">
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G136">
         <v>210128</v>
@@ -4633,19 +4687,19 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C137" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D137">
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="G137">
         <v>210102</v>
@@ -4656,19 +4710,19 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C138" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="G138">
         <v>210127</v>
@@ -4679,19 +4733,19 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C139" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D139">
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="G139">
         <v>210110</v>
@@ -4702,19 +4756,19 @@
         <v>86</v>
       </c>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D140">
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="G140">
         <v>210115</v>
@@ -4725,7 +4779,7 @@
         <v>86</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C141" t="s">
         <v>87</v>
@@ -4734,10 +4788,10 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="G141">
         <v>210115</v>
@@ -4748,19 +4802,19 @@
         <v>86</v>
       </c>
       <c r="B142" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C142" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D142">
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="G142">
         <v>210108</v>
@@ -4771,19 +4825,19 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C143" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D143">
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="G143">
         <v>210126</v>
@@ -4794,19 +4848,19 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C144" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D144">
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G144">
         <v>210123</v>
@@ -4817,19 +4871,19 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D145">
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="G145">
         <v>210121</v>
@@ -4840,19 +4894,19 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="G146">
         <v>210109</v>
@@ -4863,19 +4917,19 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C147" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D147">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="G147">
         <v>210107</v>
@@ -4886,19 +4940,19 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C148" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="G148">
         <v>210103</v>
@@ -4909,19 +4963,19 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C149" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D149">
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G149">
         <v>210103</v>
@@ -4932,19 +4986,19 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D150">
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="G150">
         <v>210102</v>
@@ -4955,19 +5009,19 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D151">
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="G151">
         <v>210126</v>
@@ -4978,19 +5032,19 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C152" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G152">
         <v>210123</v>
@@ -5001,19 +5055,19 @@
         <v>7</v>
       </c>
       <c r="B153" t="s">
+        <v>388</v>
+      </c>
+      <c r="C153" t="s">
         <v>370</v>
       </c>
-      <c r="C153" t="s">
-        <v>352</v>
-      </c>
       <c r="D153">
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="G153">
         <v>210121</v>
@@ -5024,19 +5078,19 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="G154">
         <v>210109</v>
@@ -5047,19 +5101,19 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C155" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D155">
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="G155">
         <v>210107</v>
@@ -5070,19 +5124,19 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C156" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="G156">
         <v>210103</v>
@@ -5093,19 +5147,19 @@
         <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C157" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D157">
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G157">
         <v>210103</v>
@@ -5116,19 +5170,19 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D158">
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="G158">
         <v>210102</v>
@@ -5171,109 +5225,127 @@
     <hyperlink ref="F31" r:id="rId25"/>
     <hyperlink ref="F32" r:id="rId26"/>
     <hyperlink ref="F33" r:id="rId27"/>
-    <hyperlink ref="F55" r:id="rId28"/>
-    <hyperlink ref="F56" r:id="rId29"/>
-    <hyperlink ref="F57" r:id="rId30"/>
-    <hyperlink ref="F58" r:id="rId31"/>
-    <hyperlink ref="F59" r:id="rId32"/>
-    <hyperlink ref="F60" r:id="rId33"/>
-    <hyperlink ref="F61" r:id="rId34"/>
-    <hyperlink ref="F62" r:id="rId35"/>
-    <hyperlink ref="F63" r:id="rId36"/>
-    <hyperlink ref="F64" r:id="rId37"/>
-    <hyperlink ref="F65" r:id="rId38"/>
-    <hyperlink ref="F66" r:id="rId39"/>
-    <hyperlink ref="F67" r:id="rId40"/>
-    <hyperlink ref="F68" r:id="rId41"/>
-    <hyperlink ref="F69" r:id="rId42"/>
-    <hyperlink ref="F70" r:id="rId43"/>
-    <hyperlink ref="F72" r:id="rId44"/>
-    <hyperlink ref="F73" r:id="rId45"/>
-    <hyperlink ref="F74" r:id="rId46"/>
-    <hyperlink ref="F75" r:id="rId47"/>
-    <hyperlink ref="F76" r:id="rId48"/>
-    <hyperlink ref="F77" r:id="rId49"/>
-    <hyperlink ref="F78" r:id="rId50"/>
-    <hyperlink ref="F79" r:id="rId51"/>
-    <hyperlink ref="F80" r:id="rId52"/>
-    <hyperlink ref="F81" r:id="rId53"/>
-    <hyperlink ref="F82" r:id="rId54"/>
-    <hyperlink ref="F83" r:id="rId55"/>
-    <hyperlink ref="F84" r:id="rId56"/>
-    <hyperlink ref="F85" r:id="rId57"/>
-    <hyperlink ref="F86" r:id="rId58"/>
-    <hyperlink ref="F87" r:id="rId59"/>
-    <hyperlink ref="F88" r:id="rId60"/>
-    <hyperlink ref="F89" r:id="rId61"/>
-    <hyperlink ref="F90" r:id="rId62"/>
-    <hyperlink ref="F91" r:id="rId63"/>
-    <hyperlink ref="F92" r:id="rId64"/>
-    <hyperlink ref="F93" r:id="rId65"/>
-    <hyperlink ref="F94" r:id="rId66"/>
-    <hyperlink ref="F95" r:id="rId67"/>
-    <hyperlink ref="F96" r:id="rId68"/>
-    <hyperlink ref="F97" r:id="rId69"/>
-    <hyperlink ref="F98" r:id="rId70"/>
-    <hyperlink ref="F99" r:id="rId71"/>
-    <hyperlink ref="F100" r:id="rId72"/>
-    <hyperlink ref="F101" r:id="rId73"/>
-    <hyperlink ref="F102" r:id="rId74"/>
-    <hyperlink ref="F103" r:id="rId75"/>
-    <hyperlink ref="F104" r:id="rId76"/>
-    <hyperlink ref="F105" r:id="rId77"/>
-    <hyperlink ref="F106" r:id="rId78"/>
-    <hyperlink ref="F107" r:id="rId79"/>
-    <hyperlink ref="F108" r:id="rId80"/>
-    <hyperlink ref="F109" r:id="rId81"/>
-    <hyperlink ref="F110" r:id="rId82"/>
-    <hyperlink ref="F111" r:id="rId83"/>
-    <hyperlink ref="F112" r:id="rId84"/>
-    <hyperlink ref="F113" r:id="rId85"/>
-    <hyperlink ref="F114" r:id="rId86"/>
-    <hyperlink ref="F115" r:id="rId87"/>
-    <hyperlink ref="F116" r:id="rId88"/>
-    <hyperlink ref="F117" r:id="rId89"/>
-    <hyperlink ref="F118" r:id="rId90"/>
-    <hyperlink ref="F119" r:id="rId91"/>
-    <hyperlink ref="F120" r:id="rId92"/>
-    <hyperlink ref="F121" r:id="rId93"/>
-    <hyperlink ref="F122" r:id="rId94"/>
-    <hyperlink ref="F123" r:id="rId95"/>
-    <hyperlink ref="F124" r:id="rId96"/>
-    <hyperlink ref="F125" r:id="rId97"/>
-    <hyperlink ref="F126" r:id="rId98"/>
-    <hyperlink ref="F127" r:id="rId99"/>
-    <hyperlink ref="F128" r:id="rId100"/>
-    <hyperlink ref="F129" r:id="rId101"/>
-    <hyperlink ref="F130" r:id="rId102"/>
-    <hyperlink ref="F131" r:id="rId103"/>
-    <hyperlink ref="F132" r:id="rId104"/>
-    <hyperlink ref="F133" r:id="rId105"/>
-    <hyperlink ref="F134" r:id="rId106"/>
-    <hyperlink ref="F135" r:id="rId107"/>
-    <hyperlink ref="F136" r:id="rId108"/>
-    <hyperlink ref="F137" r:id="rId109"/>
-    <hyperlink ref="F138" r:id="rId110"/>
-    <hyperlink ref="F139" r:id="rId111"/>
-    <hyperlink ref="F140" r:id="rId112"/>
-    <hyperlink ref="F141" r:id="rId113"/>
-    <hyperlink ref="F142" r:id="rId114"/>
-    <hyperlink ref="F143" r:id="rId115"/>
-    <hyperlink ref="F144" r:id="rId116"/>
-    <hyperlink ref="F145" r:id="rId117"/>
-    <hyperlink ref="F146" r:id="rId118"/>
-    <hyperlink ref="F147" r:id="rId119"/>
-    <hyperlink ref="F148" r:id="rId120"/>
-    <hyperlink ref="F149" r:id="rId121"/>
-    <hyperlink ref="F150" r:id="rId122"/>
-    <hyperlink ref="F151" r:id="rId123"/>
-    <hyperlink ref="F152" r:id="rId124"/>
-    <hyperlink ref="F153" r:id="rId125"/>
-    <hyperlink ref="F154" r:id="rId126"/>
-    <hyperlink ref="F155" r:id="rId127"/>
-    <hyperlink ref="F156" r:id="rId128"/>
-    <hyperlink ref="F157" r:id="rId129"/>
-    <hyperlink ref="F158" r:id="rId130"/>
+    <hyperlink ref="F34" r:id="rId28"/>
+    <hyperlink ref="F35" r:id="rId29"/>
+    <hyperlink ref="F36" r:id="rId30"/>
+    <hyperlink ref="F37" r:id="rId31"/>
+    <hyperlink ref="F38" r:id="rId32"/>
+    <hyperlink ref="F39" r:id="rId33"/>
+    <hyperlink ref="F40" r:id="rId34"/>
+    <hyperlink ref="F41" r:id="rId35"/>
+    <hyperlink ref="F42" r:id="rId36"/>
+    <hyperlink ref="F43" r:id="rId37"/>
+    <hyperlink ref="F44" r:id="rId38"/>
+    <hyperlink ref="F45" r:id="rId39"/>
+    <hyperlink ref="F46" r:id="rId40"/>
+    <hyperlink ref="F47" r:id="rId41"/>
+    <hyperlink ref="F48" r:id="rId42"/>
+    <hyperlink ref="F52" r:id="rId43"/>
+    <hyperlink ref="F53" r:id="rId44"/>
+    <hyperlink ref="F54" r:id="rId45"/>
+    <hyperlink ref="F55" r:id="rId46"/>
+    <hyperlink ref="F56" r:id="rId47"/>
+    <hyperlink ref="F57" r:id="rId48"/>
+    <hyperlink ref="F58" r:id="rId49"/>
+    <hyperlink ref="F59" r:id="rId50"/>
+    <hyperlink ref="F60" r:id="rId51"/>
+    <hyperlink ref="F61" r:id="rId52"/>
+    <hyperlink ref="F62" r:id="rId53"/>
+    <hyperlink ref="F63" r:id="rId54"/>
+    <hyperlink ref="F64" r:id="rId55"/>
+    <hyperlink ref="F65" r:id="rId56"/>
+    <hyperlink ref="F66" r:id="rId57"/>
+    <hyperlink ref="F67" r:id="rId58"/>
+    <hyperlink ref="F68" r:id="rId59"/>
+    <hyperlink ref="F69" r:id="rId60"/>
+    <hyperlink ref="F70" r:id="rId61"/>
+    <hyperlink ref="F72" r:id="rId62"/>
+    <hyperlink ref="F73" r:id="rId63"/>
+    <hyperlink ref="F74" r:id="rId64"/>
+    <hyperlink ref="F75" r:id="rId65"/>
+    <hyperlink ref="F76" r:id="rId66"/>
+    <hyperlink ref="F77" r:id="rId67"/>
+    <hyperlink ref="F78" r:id="rId68"/>
+    <hyperlink ref="F79" r:id="rId69"/>
+    <hyperlink ref="F80" r:id="rId70"/>
+    <hyperlink ref="F81" r:id="rId71"/>
+    <hyperlink ref="F82" r:id="rId72"/>
+    <hyperlink ref="F83" r:id="rId73"/>
+    <hyperlink ref="F84" r:id="rId74"/>
+    <hyperlink ref="F85" r:id="rId75"/>
+    <hyperlink ref="F86" r:id="rId76"/>
+    <hyperlink ref="F87" r:id="rId77"/>
+    <hyperlink ref="F88" r:id="rId78"/>
+    <hyperlink ref="F89" r:id="rId79"/>
+    <hyperlink ref="F90" r:id="rId80"/>
+    <hyperlink ref="F91" r:id="rId81"/>
+    <hyperlink ref="F92" r:id="rId82"/>
+    <hyperlink ref="F93" r:id="rId83"/>
+    <hyperlink ref="F94" r:id="rId84"/>
+    <hyperlink ref="F95" r:id="rId85"/>
+    <hyperlink ref="F96" r:id="rId86"/>
+    <hyperlink ref="F97" r:id="rId87"/>
+    <hyperlink ref="F98" r:id="rId88"/>
+    <hyperlink ref="F99" r:id="rId89"/>
+    <hyperlink ref="F100" r:id="rId90"/>
+    <hyperlink ref="F101" r:id="rId91"/>
+    <hyperlink ref="F102" r:id="rId92"/>
+    <hyperlink ref="F103" r:id="rId93"/>
+    <hyperlink ref="F104" r:id="rId94"/>
+    <hyperlink ref="F105" r:id="rId95"/>
+    <hyperlink ref="F106" r:id="rId96"/>
+    <hyperlink ref="F107" r:id="rId97"/>
+    <hyperlink ref="F108" r:id="rId98"/>
+    <hyperlink ref="F109" r:id="rId99"/>
+    <hyperlink ref="F110" r:id="rId100"/>
+    <hyperlink ref="F111" r:id="rId101"/>
+    <hyperlink ref="F112" r:id="rId102"/>
+    <hyperlink ref="F113" r:id="rId103"/>
+    <hyperlink ref="F114" r:id="rId104"/>
+    <hyperlink ref="F115" r:id="rId105"/>
+    <hyperlink ref="F116" r:id="rId106"/>
+    <hyperlink ref="F117" r:id="rId107"/>
+    <hyperlink ref="F118" r:id="rId108"/>
+    <hyperlink ref="F119" r:id="rId109"/>
+    <hyperlink ref="F120" r:id="rId110"/>
+    <hyperlink ref="F121" r:id="rId111"/>
+    <hyperlink ref="F122" r:id="rId112"/>
+    <hyperlink ref="F123" r:id="rId113"/>
+    <hyperlink ref="F124" r:id="rId114"/>
+    <hyperlink ref="F125" r:id="rId115"/>
+    <hyperlink ref="F126" r:id="rId116"/>
+    <hyperlink ref="F127" r:id="rId117"/>
+    <hyperlink ref="F128" r:id="rId118"/>
+    <hyperlink ref="F129" r:id="rId119"/>
+    <hyperlink ref="F130" r:id="rId120"/>
+    <hyperlink ref="F131" r:id="rId121"/>
+    <hyperlink ref="F132" r:id="rId122"/>
+    <hyperlink ref="F133" r:id="rId123"/>
+    <hyperlink ref="F134" r:id="rId124"/>
+    <hyperlink ref="F135" r:id="rId125"/>
+    <hyperlink ref="F136" r:id="rId126"/>
+    <hyperlink ref="F137" r:id="rId127"/>
+    <hyperlink ref="F138" r:id="rId128"/>
+    <hyperlink ref="F139" r:id="rId129"/>
+    <hyperlink ref="F140" r:id="rId130"/>
+    <hyperlink ref="F141" r:id="rId131"/>
+    <hyperlink ref="F142" r:id="rId132"/>
+    <hyperlink ref="F143" r:id="rId133"/>
+    <hyperlink ref="F144" r:id="rId134"/>
+    <hyperlink ref="F145" r:id="rId135"/>
+    <hyperlink ref="F146" r:id="rId136"/>
+    <hyperlink ref="F147" r:id="rId137"/>
+    <hyperlink ref="F148" r:id="rId138"/>
+    <hyperlink ref="F149" r:id="rId139"/>
+    <hyperlink ref="F150" r:id="rId140"/>
+    <hyperlink ref="F151" r:id="rId141"/>
+    <hyperlink ref="F152" r:id="rId142"/>
+    <hyperlink ref="F153" r:id="rId143"/>
+    <hyperlink ref="F154" r:id="rId144"/>
+    <hyperlink ref="F155" r:id="rId145"/>
+    <hyperlink ref="F156" r:id="rId146"/>
+    <hyperlink ref="F157" r:id="rId147"/>
+    <hyperlink ref="F158" r:id="rId148"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
